--- a/biology/Zoologie/Disque_imaginal/Disque_imaginal.xlsx
+++ b/biology/Zoologie/Disque_imaginal/Disque_imaginal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les insectes holométaboles, c'est-à-dire qui subissent des mues complètes à partir de formes larvaires différentes des formes adultes, les disques imaginaux sont des structures à partir desquelles les différentes parties de l'insecte adulte sont formées dans la nymphe.
 Ils sont constitués d'une dizaine de cellules indifférenciées (cellules souches) et se développent en structures comme des ailes lors de la métamorphose.
